--- a/Tables/Table_S2.xlsx
+++ b/Tables/Table_S2.xlsx
@@ -417,14 +417,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="F2">
-        <v>7.68</v>
+        <v>7.46</v>
       </c>
       <c r="G2">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3">
@@ -450,14 +450,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="F3">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="G3">
-        <v>6.85</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -559,14 +559,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="F7">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="G7">
-        <v>11.44</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="8">
@@ -592,14 +592,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="F8">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G8">
-        <v>8.49</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="9">
@@ -625,14 +625,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="F9">
-        <v>-1.73</v>
+        <v>-1.86</v>
       </c>
       <c r="G9">
-        <v>4.25</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="10">
@@ -658,14 +658,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="F10">
-        <v>-6.68</v>
+        <v>-6.78</v>
       </c>
       <c r="G10">
-        <v>5.04</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -691,7 +691,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>33%</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>9%</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -767,14 +767,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="F14">
-        <v>14.88</v>
+        <v>13.11</v>
       </c>
       <c r="G14">
-        <v>21.57</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="15">
@@ -800,14 +800,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>-3.97</t>
         </is>
       </c>
       <c r="F15">
-        <v>-11.44</v>
+        <v>-9.99</v>
       </c>
       <c r="G15">
-        <v>-0.51</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16">
@@ -833,7 +833,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>38%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -909,14 +909,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21.19</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>13.56</v>
       </c>
       <c r="G19">
-        <v>26.47</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="20">
@@ -942,14 +942,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-8.84</t>
+          <t>-8.07</t>
         </is>
       </c>
       <c r="F20">
-        <v>-17.21</v>
+        <v>-17.81</v>
       </c>
       <c r="G20">
-        <v>-0.53</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="21">
@@ -975,14 +975,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-4.63</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="F21">
-        <v>-11.38</v>
+        <v>-13.6</v>
       </c>
       <c r="G21">
-        <v>2.15</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="22">
@@ -1008,14 +1008,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="F22">
-        <v>-7.44</v>
+        <v>-6.82</v>
       </c>
       <c r="G22">
-        <v>14.61</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="23">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>38%</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
